--- a/run/compare.xlsx
+++ b/run/compare.xlsx
@@ -279,13 +279,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right/>
       <top style="thin"/>
       <bottom/>
@@ -303,6 +296,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -331,7 +331,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -412,6 +412,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -422,6 +426,10 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -448,15 +456,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -464,7 +472,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -504,7 +512,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -540,52 +548,76 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -667,8 +699,8 @@
   </sheetPr>
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K42" activeCellId="0" sqref="K42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C76" activeCellId="0" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -950,34 +982,34 @@
       <c r="A16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="17" t="n">
-        <v>0.4694</v>
-      </c>
-      <c r="C16" s="17" t="n">
-        <v>0.4839</v>
-      </c>
-      <c r="D16" s="17" t="n">
-        <v>0.2636</v>
-      </c>
-      <c r="E16" s="8" t="n">
-        <v>0.3507</v>
+      <c r="B16" s="20" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="C16" s="20" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="D16" s="20" t="n">
+        <v>0.2583</v>
+      </c>
+      <c r="E16" s="20" t="n">
+        <v>0.3436</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18" t="n">
         <f aca="false">(B4-B16)</f>
-        <v>0.00490000000000002</v>
+        <v>0.0144</v>
       </c>
       <c r="H16" s="18" t="n">
         <f aca="false">(C4-C16)</f>
-        <v>0.018</v>
+        <v>0.0279</v>
       </c>
       <c r="I16" s="18" t="n">
         <f aca="false">(D4-D16)</f>
-        <v>0.004</v>
+        <v>0.00930000000000003</v>
       </c>
       <c r="J16" s="19" t="n">
         <f aca="false">(E4-E16)</f>
-        <v>0.0178</v>
+        <v>0.0249</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,19 +1047,19 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="21" t="n">
+      <c r="B18" s="22" t="n">
         <v>0.3757</v>
       </c>
-      <c r="C18" s="21" t="n">
+      <c r="C18" s="22" t="n">
         <v>0.414</v>
       </c>
-      <c r="D18" s="21" t="n">
+      <c r="D18" s="22" t="n">
         <v>0.2087</v>
       </c>
-      <c r="E18" s="22" t="n">
+      <c r="E18" s="23" t="n">
         <v>0.2793</v>
       </c>
       <c r="F18" s="17"/>
@@ -1052,34 +1084,34 @@
       <c r="A19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="17" t="n">
-        <v>0.5164</v>
-      </c>
-      <c r="C19" s="17" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="D19" s="17" t="n">
-        <v>0.2925</v>
-      </c>
-      <c r="E19" s="8" t="n">
-        <v>0.3899</v>
+      <c r="B19" s="20" t="n">
+        <v>0.5059</v>
+      </c>
+      <c r="C19" s="20" t="n">
+        <v>0.5222</v>
+      </c>
+      <c r="D19" s="20" t="n">
+        <v>0.2865</v>
+      </c>
+      <c r="E19" s="20" t="n">
+        <v>0.382</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="18" t="n">
         <f aca="false">(B7-B19)</f>
-        <v>-0.0119</v>
+        <v>-0.00140000000000007</v>
       </c>
       <c r="H19" s="18" t="n">
         <f aca="false">(C7-C19)</f>
-        <v>-0.00800000000000001</v>
+        <v>0.00280000000000002</v>
       </c>
       <c r="I19" s="18" t="n">
         <f aca="false">(D7-D19)</f>
-        <v>-0.0066</v>
+        <v>-0.000599999999999989</v>
       </c>
       <c r="J19" s="19" t="n">
         <f aca="false">(E7-E19)</f>
-        <v>-0.00610000000000005</v>
+        <v>0.00179999999999997</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,19 +1149,19 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="21" t="n">
+      <c r="B21" s="22" t="n">
         <v>0.2715</v>
       </c>
-      <c r="C21" s="21" t="n">
+      <c r="C21" s="22" t="n">
         <v>0.2982</v>
       </c>
-      <c r="D21" s="21" t="n">
+      <c r="D21" s="22" t="n">
         <v>0.1549</v>
       </c>
-      <c r="E21" s="22" t="n">
+      <c r="E21" s="23" t="n">
         <v>0.1926</v>
       </c>
       <c r="F21" s="17"/>
@@ -1154,38 +1186,38 @@
       <c r="A22" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="17" t="n">
-        <v>0.4632</v>
-      </c>
-      <c r="C22" s="17" t="n">
-        <v>0.4797</v>
-      </c>
-      <c r="D22" s="17" t="n">
-        <v>0.2734</v>
-      </c>
-      <c r="E22" s="8" t="n">
-        <v>0.3517</v>
+      <c r="B22" s="24" t="n">
+        <v>0.4538</v>
+      </c>
+      <c r="C22" s="24" t="n">
+        <v>0.4699</v>
+      </c>
+      <c r="D22" s="24" t="n">
+        <v>0.2679</v>
+      </c>
+      <c r="E22" s="24" t="n">
+        <v>0.3446</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="18" t="n">
         <f aca="false">(B10-B22)</f>
-        <v>-0.0269</v>
+        <v>-0.0175</v>
       </c>
       <c r="H22" s="18" t="n">
         <f aca="false">(C10-C22)</f>
-        <v>-0.0224</v>
+        <v>-0.0126</v>
       </c>
       <c r="I22" s="18" t="n">
         <f aca="false">(D10-D22)</f>
-        <v>-0.0191</v>
+        <v>-0.0136</v>
       </c>
       <c r="J22" s="19" t="n">
         <f aca="false">(E10-E22)</f>
-        <v>-0.0192</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="10" t="n">
@@ -1201,29 +1233,29 @@
         <v>0.0998</v>
       </c>
       <c r="F23" s="17"/>
-      <c r="G23" s="24" t="n">
+      <c r="G23" s="26" t="n">
         <f aca="false">(B11-B23)</f>
         <v>0.0901</v>
       </c>
-      <c r="H23" s="25" t="n">
+      <c r="H23" s="27" t="n">
         <f aca="false">(C11-C23)</f>
         <v>0.0868</v>
       </c>
-      <c r="I23" s="25" t="n">
+      <c r="I23" s="27" t="n">
         <f aca="false">(D11-D23)</f>
         <v>0.0614</v>
       </c>
-      <c r="J23" s="26" t="n">
+      <c r="J23" s="28" t="n">
         <f aca="false">(E11-E23)</f>
         <v>0.0674</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="1"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="1"/>
@@ -1239,12 +1271,12 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
@@ -1277,22 +1309,22 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="30" t="n">
+      <c r="B28" s="32" t="n">
         <v>0.4751</v>
       </c>
-      <c r="C28" s="30" t="n">
+      <c r="C28" s="32" t="n">
         <v>0.5042</v>
       </c>
-      <c r="D28" s="30" t="n">
+      <c r="D28" s="32" t="n">
         <v>0.2961</v>
       </c>
-      <c r="E28" s="31" t="n">
+      <c r="E28" s="33" t="n">
         <v>0.3667</v>
       </c>
-      <c r="G28" s="32" t="n">
+      <c r="G28" s="34" t="n">
         <f aca="false">($B3-B28)</f>
         <v>0.0337</v>
       </c>
@@ -1313,52 +1345,52 @@
       <c r="A29" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="33" t="n">
-        <v>0.4694</v>
-      </c>
-      <c r="C29" s="33" t="n">
-        <v>0.4839</v>
-      </c>
-      <c r="D29" s="33" t="n">
-        <v>0.2636</v>
-      </c>
-      <c r="E29" s="34" t="n">
-        <v>0.3507</v>
-      </c>
-      <c r="G29" s="32" t="n">
+      <c r="B29" s="24" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="C29" s="24" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="D29" s="24" t="n">
+        <v>0.2583</v>
+      </c>
+      <c r="E29" s="35" t="n">
+        <v>0.3436</v>
+      </c>
+      <c r="G29" s="34" t="n">
         <f aca="false">($B4-B29)</f>
-        <v>0.00490000000000002</v>
+        <v>0.0144</v>
       </c>
       <c r="H29" s="18" t="n">
         <f aca="false">($C4-C29)</f>
-        <v>0.018</v>
+        <v>0.0279</v>
       </c>
       <c r="I29" s="18" t="n">
         <f aca="false">($D4-D29)</f>
-        <v>0.004</v>
+        <v>0.00930000000000003</v>
       </c>
       <c r="J29" s="19" t="n">
         <f aca="false">($E4-E29)</f>
-        <v>0.0178</v>
+        <v>0.0249</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="33" t="n">
+      <c r="B30" s="20" t="n">
         <v>0.128</v>
       </c>
-      <c r="C30" s="33" t="n">
+      <c r="C30" s="20" t="n">
         <v>0.1362</v>
       </c>
-      <c r="D30" s="33" t="n">
+      <c r="D30" s="20" t="n">
         <v>0.0667</v>
       </c>
-      <c r="E30" s="34" t="n">
+      <c r="E30" s="36" t="n">
         <v>0.0789</v>
       </c>
-      <c r="G30" s="32" t="n">
+      <c r="G30" s="34" t="n">
         <f aca="false">($B5-B30)</f>
         <v>0.063</v>
       </c>
@@ -1376,22 +1408,22 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="36" t="n">
+      <c r="B31" s="38" t="n">
         <v>0.3704</v>
       </c>
-      <c r="C31" s="36" t="n">
+      <c r="C31" s="38" t="n">
         <v>0.4099</v>
       </c>
-      <c r="D31" s="36" t="n">
+      <c r="D31" s="38" t="n">
         <v>0.2051</v>
       </c>
-      <c r="E31" s="37" t="n">
+      <c r="E31" s="39" t="n">
         <v>0.2752</v>
       </c>
-      <c r="G31" s="32" t="n">
+      <c r="G31" s="34" t="n">
         <f aca="false">($B6-B31)</f>
         <v>0.1834</v>
       </c>
@@ -1412,52 +1444,52 @@
       <c r="A32" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="33" t="n">
-        <v>0.5164</v>
-      </c>
-      <c r="C32" s="33" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="D32" s="33" t="n">
-        <v>0.2925</v>
-      </c>
-      <c r="E32" s="34" t="n">
-        <v>0.3899</v>
-      </c>
-      <c r="G32" s="32" t="n">
+      <c r="B32" s="20" t="n">
+        <v>0.5059</v>
+      </c>
+      <c r="C32" s="20" t="n">
+        <v>0.5222</v>
+      </c>
+      <c r="D32" s="20" t="n">
+        <v>0.2865</v>
+      </c>
+      <c r="E32" s="36" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="G32" s="34" t="n">
         <f aca="false">($B7-B32)</f>
-        <v>-0.0119</v>
+        <v>-0.00140000000000007</v>
       </c>
       <c r="H32" s="18" t="n">
         <f aca="false">($C7-C32)</f>
-        <v>-0.00800000000000001</v>
+        <v>0.00280000000000002</v>
       </c>
       <c r="I32" s="18" t="n">
         <f aca="false">($D7-D32)</f>
-        <v>-0.0066</v>
+        <v>-0.000599999999999989</v>
       </c>
       <c r="J32" s="19" t="n">
         <f aca="false">($E7-E32)</f>
-        <v>-0.00610000000000005</v>
+        <v>0.00179999999999997</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="33" t="n">
+      <c r="B33" s="20" t="n">
         <v>0.1263</v>
       </c>
-      <c r="C33" s="33" t="n">
+      <c r="C33" s="20" t="n">
         <v>0.1383</v>
       </c>
-      <c r="D33" s="33" t="n">
+      <c r="D33" s="20" t="n">
         <v>0.0724</v>
       </c>
-      <c r="E33" s="34" t="n">
+      <c r="E33" s="36" t="n">
         <v>0.088</v>
       </c>
-      <c r="G33" s="32" t="n">
+      <c r="G33" s="34" t="n">
         <f aca="false">($B8-B33)</f>
         <v>0.09</v>
       </c>
@@ -1475,22 +1507,22 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="39" t="n">
+      <c r="B34" s="41" t="n">
         <v>0.2775</v>
       </c>
-      <c r="C34" s="39" t="n">
+      <c r="C34" s="41" t="n">
         <v>0.2997</v>
       </c>
-      <c r="D34" s="39" t="n">
+      <c r="D34" s="41" t="n">
         <v>0.159</v>
       </c>
-      <c r="E34" s="40" t="n">
+      <c r="E34" s="42" t="n">
         <v>0.1952</v>
       </c>
-      <c r="G34" s="32" t="n">
+      <c r="G34" s="34" t="n">
         <f aca="false">($B9-B34)</f>
         <v>0.269</v>
       </c>
@@ -1511,75 +1543,75 @@
       <c r="A35" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="33" t="n">
-        <v>0.4632</v>
-      </c>
-      <c r="C35" s="33" t="n">
-        <v>0.4797</v>
-      </c>
-      <c r="D35" s="33" t="n">
-        <v>0.2734</v>
-      </c>
-      <c r="E35" s="34" t="n">
-        <v>0.3517</v>
-      </c>
-      <c r="G35" s="32" t="n">
+      <c r="B35" s="24" t="n">
+        <v>0.4538</v>
+      </c>
+      <c r="C35" s="24" t="n">
+        <v>0.4699</v>
+      </c>
+      <c r="D35" s="24" t="n">
+        <v>0.2679</v>
+      </c>
+      <c r="E35" s="35" t="n">
+        <v>0.3446</v>
+      </c>
+      <c r="G35" s="34" t="n">
         <f aca="false">($B10-B35)</f>
-        <v>-0.0269</v>
+        <v>-0.0175</v>
       </c>
       <c r="H35" s="18" t="n">
         <f aca="false">($C10-C35)</f>
-        <v>-0.0224</v>
+        <v>-0.0126</v>
       </c>
       <c r="I35" s="18" t="n">
         <f aca="false">($D10-D35)</f>
-        <v>-0.0191</v>
+        <v>-0.0136</v>
       </c>
       <c r="J35" s="19" t="n">
         <f aca="false">($E10-E35)</f>
-        <v>-0.0192</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="41" t="n">
+      <c r="B36" s="43" t="n">
         <v>0.1481</v>
       </c>
-      <c r="C36" s="41" t="n">
+      <c r="C36" s="43" t="n">
         <v>0.1624</v>
       </c>
-      <c r="D36" s="41" t="n">
+      <c r="D36" s="43" t="n">
         <v>0.0799</v>
       </c>
-      <c r="E36" s="42" t="n">
+      <c r="E36" s="44" t="n">
         <v>0.0992</v>
       </c>
       <c r="F36" s="17"/>
-      <c r="G36" s="24" t="n">
+      <c r="G36" s="26" t="n">
         <f aca="false">($B11-B36)</f>
         <v>0.0917</v>
       </c>
-      <c r="H36" s="43" t="n">
+      <c r="H36" s="45" t="n">
         <f aca="false">($C11-C36)</f>
         <v>0.0899</v>
       </c>
-      <c r="I36" s="43" t="n">
+      <c r="I36" s="45" t="n">
         <f aca="false">($D11-D36)</f>
         <v>0.0616</v>
       </c>
-      <c r="J36" s="26" t="n">
+      <c r="J36" s="28" t="n">
         <f aca="false">($E11-E36)</f>
         <v>0.068</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F37" s="1"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F38" s="1"/>
@@ -1587,809 +1619,809 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46" t="s">
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="50"/>
-      <c r="G40" s="51" t="s">
+      <c r="F40" s="52"/>
+      <c r="G40" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="51" t="s">
+      <c r="H40" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="51" t="s">
+      <c r="I40" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="51" t="s">
+      <c r="J40" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="53" t="n">
-        <v>0.4751</v>
-      </c>
-      <c r="C41" s="53" t="n">
-        <v>0.5042</v>
-      </c>
-      <c r="D41" s="53" t="n">
-        <v>0.2691</v>
-      </c>
-      <c r="E41" s="54" t="n">
-        <v>0.3667</v>
-      </c>
-      <c r="F41" s="55"/>
-      <c r="G41" s="32" t="n">
+      <c r="B41" s="55" t="n">
+        <v>0.4761</v>
+      </c>
+      <c r="C41" s="55" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="D41" s="55" t="n">
+        <v>0.2693</v>
+      </c>
+      <c r="E41" s="56" t="n">
+        <v>0.3634</v>
+      </c>
+      <c r="F41" s="57"/>
+      <c r="G41" s="34" t="n">
         <f aca="false">($B3-B41)</f>
-        <v>0.0337</v>
+        <v>0.0327</v>
       </c>
       <c r="H41" s="18" t="n">
         <f aca="false">($C3-C41)</f>
-        <v>0.041</v>
+        <v>0.0463</v>
       </c>
       <c r="I41" s="18" t="n">
         <f aca="false">($D3-D41)</f>
-        <v>0.018</v>
+        <v>0.0178</v>
       </c>
       <c r="J41" s="19" t="n">
         <f aca="false">($E3-E41)</f>
-        <v>0.0309</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="57" t="n">
-        <v>0.4694</v>
-      </c>
-      <c r="C42" s="57" t="n">
-        <v>0.4839</v>
-      </c>
-      <c r="D42" s="57" t="n">
-        <v>0.2636</v>
-      </c>
-      <c r="E42" s="58" t="n">
-        <v>0.3507</v>
-      </c>
-      <c r="F42" s="55"/>
-      <c r="G42" s="32" t="n">
+      <c r="B42" s="59" t="n">
+        <v>0.4602</v>
+      </c>
+      <c r="C42" s="59" t="n">
+        <v>0.4744</v>
+      </c>
+      <c r="D42" s="59" t="n">
+        <v>0.2584</v>
+      </c>
+      <c r="E42" s="60" t="n">
+        <v>0.3439</v>
+      </c>
+      <c r="F42" s="57"/>
+      <c r="G42" s="34" t="n">
         <f aca="false">($B4-B42)</f>
-        <v>0.00490000000000002</v>
+        <v>0.0141</v>
       </c>
       <c r="H42" s="18" t="n">
         <f aca="false">($C4-C42)</f>
-        <v>0.018</v>
+        <v>0.0275</v>
       </c>
       <c r="I42" s="18" t="n">
         <f aca="false">($D4-D42)</f>
-        <v>0.004</v>
+        <v>0.00919999999999999</v>
       </c>
       <c r="J42" s="19" t="n">
         <f aca="false">($E4-E42)</f>
-        <v>0.0178</v>
+        <v>0.0246</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="57" t="n">
-        <v>0.128</v>
-      </c>
-      <c r="C43" s="57" t="n">
-        <v>0.1362</v>
-      </c>
-      <c r="D43" s="57" t="n">
-        <v>0.0667</v>
-      </c>
-      <c r="E43" s="58" t="n">
-        <v>0.0789</v>
-      </c>
-      <c r="F43" s="55"/>
-      <c r="G43" s="32" t="n">
+      <c r="B43" s="59" t="n">
+        <v>0.0822</v>
+      </c>
+      <c r="C43" s="59" t="n">
+        <v>0.0935</v>
+      </c>
+      <c r="D43" s="59" t="n">
+        <v>0.0445</v>
+      </c>
+      <c r="E43" s="60" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="F43" s="57"/>
+      <c r="G43" s="34" t="n">
         <f aca="false">($B5-B43)</f>
-        <v>0.063</v>
+        <v>0.1088</v>
       </c>
       <c r="H43" s="18" t="n">
         <f aca="false">($C5-C43)</f>
-        <v>0.0601</v>
+        <v>0.1028</v>
       </c>
       <c r="I43" s="18" t="n">
         <f aca="false">($D5-D43)</f>
-        <v>0.0331</v>
+        <v>0.0553</v>
       </c>
       <c r="J43" s="19" t="n">
         <f aca="false">($E5-E43)</f>
-        <v>0.041</v>
+        <v>0.0644</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="57" t="n">
-        <v>0.3704</v>
-      </c>
-      <c r="C44" s="57" t="n">
-        <v>0.4099</v>
-      </c>
-      <c r="D44" s="57" t="n">
-        <v>0.2051</v>
-      </c>
-      <c r="E44" s="58" t="n">
-        <v>0.2752</v>
-      </c>
-      <c r="F44" s="55"/>
-      <c r="G44" s="32" t="n">
+      <c r="B44" s="59" t="n">
+        <v>0.4673</v>
+      </c>
+      <c r="C44" s="59" t="n">
+        <v>0.4966</v>
+      </c>
+      <c r="D44" s="59" t="n">
+        <v>0.2642</v>
+      </c>
+      <c r="E44" s="60" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="F44" s="57"/>
+      <c r="G44" s="34" t="n">
         <f aca="false">($B6-B44)</f>
-        <v>0.1834</v>
+        <v>0.0865</v>
       </c>
       <c r="H44" s="18" t="n">
         <f aca="false">($C6-C44)</f>
-        <v>0.1778</v>
+        <v>0.0911</v>
       </c>
       <c r="I44" s="18" t="n">
         <f aca="false">($D6-D44)</f>
-        <v>0.1147</v>
+        <v>0.0556</v>
       </c>
       <c r="J44" s="19" t="n">
         <f aca="false">($E6-E44)</f>
-        <v>0.1606</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="57" t="n">
-        <v>0.5164</v>
-      </c>
-      <c r="C45" s="57" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="D45" s="57" t="n">
-        <v>0.2925</v>
-      </c>
-      <c r="E45" s="58" t="n">
-        <v>0.3899</v>
-      </c>
-      <c r="F45" s="55"/>
-      <c r="G45" s="32" t="n">
+      <c r="B45" s="61" t="n">
+        <v>0.5055</v>
+      </c>
+      <c r="C45" s="61" t="n">
+        <v>0.5222</v>
+      </c>
+      <c r="D45" s="61" t="n">
+        <v>0.2865</v>
+      </c>
+      <c r="E45" s="62" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="F45" s="57"/>
+      <c r="G45" s="34" t="n">
         <f aca="false">($B7-B45)</f>
-        <v>-0.0119</v>
+        <v>-0.001</v>
       </c>
       <c r="H45" s="18" t="n">
         <f aca="false">($C7-C45)</f>
-        <v>-0.00800000000000001</v>
+        <v>0.00280000000000002</v>
       </c>
       <c r="I45" s="18" t="n">
         <f aca="false">($D7-D45)</f>
-        <v>-0.0066</v>
+        <v>-0.000599999999999989</v>
       </c>
       <c r="J45" s="19" t="n">
         <f aca="false">($E7-E45)</f>
-        <v>-0.00610000000000005</v>
+        <v>0.00179999999999997</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="57" t="n">
-        <v>0.1263</v>
-      </c>
-      <c r="C46" s="57" t="n">
-        <v>0.1383</v>
-      </c>
-      <c r="D46" s="57" t="n">
-        <v>0.0724</v>
-      </c>
-      <c r="E46" s="58" t="n">
-        <v>0.088</v>
-      </c>
-      <c r="F46" s="55"/>
-      <c r="G46" s="32" t="n">
+      <c r="B46" s="59" t="n">
+        <v>0.1128</v>
+      </c>
+      <c r="C46" s="59" t="n">
+        <v>0.1223</v>
+      </c>
+      <c r="D46" s="59" t="n">
+        <v>0.0666</v>
+      </c>
+      <c r="E46" s="62" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="F46" s="57"/>
+      <c r="G46" s="34" t="n">
         <f aca="false">($B8-B46)</f>
-        <v>0.09</v>
+        <v>0.1035</v>
       </c>
       <c r="H46" s="18" t="n">
         <f aca="false">($C8-C46)</f>
-        <v>0.0813</v>
+        <v>0.0973</v>
       </c>
       <c r="I46" s="18" t="n">
         <f aca="false">($D8-D46)</f>
-        <v>0.0661</v>
+        <v>0.0719</v>
       </c>
       <c r="J46" s="19" t="n">
         <f aca="false">($E8-E46)</f>
-        <v>0.067</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="57" t="n">
-        <v>0.2775</v>
-      </c>
-      <c r="C47" s="57" t="n">
-        <v>0.2997</v>
-      </c>
-      <c r="D47" s="57" t="n">
-        <v>0.159</v>
-      </c>
-      <c r="E47" s="58" t="n">
-        <v>0.1952</v>
-      </c>
-      <c r="F47" s="55"/>
-      <c r="G47" s="32" t="n">
+      <c r="B47" s="59" t="n">
+        <v>0.2173</v>
+      </c>
+      <c r="C47" s="59" t="n">
+        <v>0.2403</v>
+      </c>
+      <c r="D47" s="59" t="n">
+        <v>0.1289</v>
+      </c>
+      <c r="E47" s="60" t="n">
+        <v>0.1571</v>
+      </c>
+      <c r="F47" s="57"/>
+      <c r="G47" s="34" t="n">
         <f aca="false">($B9-B47)</f>
-        <v>0.269</v>
+        <v>0.3292</v>
       </c>
       <c r="H47" s="18" t="n">
         <f aca="false">($C9-C47)</f>
-        <v>0.2808</v>
+        <v>0.3402</v>
       </c>
       <c r="I47" s="18" t="n">
         <f aca="false">($D9-D47)</f>
-        <v>0.1676</v>
+        <v>0.1977</v>
       </c>
       <c r="J47" s="19" t="n">
         <f aca="false">($E9-E47)</f>
-        <v>0.2372</v>
+        <v>0.2753</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="57" t="n">
-        <v>0.4632</v>
-      </c>
-      <c r="C48" s="57" t="n">
-        <v>0.4797</v>
-      </c>
-      <c r="D48" s="57" t="n">
-        <v>0.2734</v>
-      </c>
-      <c r="E48" s="58" t="n">
-        <v>0.3517</v>
-      </c>
-      <c r="F48" s="55"/>
-      <c r="G48" s="32" t="n">
+      <c r="B48" s="59" t="n">
+        <v>0.4533</v>
+      </c>
+      <c r="C48" s="59" t="n">
+        <v>0.4695</v>
+      </c>
+      <c r="D48" s="59" t="n">
+        <v>0.2677</v>
+      </c>
+      <c r="E48" s="60" t="n">
+        <v>0.3443</v>
+      </c>
+      <c r="F48" s="57"/>
+      <c r="G48" s="34" t="n">
         <f aca="false">($B10-B48)</f>
-        <v>-0.0269</v>
+        <v>-0.017</v>
       </c>
       <c r="H48" s="18" t="n">
         <f aca="false">($C10-C48)</f>
-        <v>-0.0224</v>
+        <v>-0.0122</v>
       </c>
       <c r="I48" s="18" t="n">
         <f aca="false">($D10-D48)</f>
-        <v>-0.0191</v>
+        <v>-0.0134</v>
       </c>
       <c r="J48" s="19" t="n">
         <f aca="false">($E10-E48)</f>
-        <v>-0.0192</v>
+        <v>-0.0118</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="60" t="n">
-        <v>0.1481</v>
-      </c>
-      <c r="C49" s="60" t="n">
-        <v>0.1624</v>
-      </c>
-      <c r="D49" s="60" t="n">
-        <v>0.0799</v>
-      </c>
-      <c r="E49" s="61" t="n">
-        <v>0.0992</v>
-      </c>
-      <c r="F49" s="50"/>
-      <c r="G49" s="24" t="n">
+      <c r="B49" s="64" t="n">
+        <v>0.0996</v>
+      </c>
+      <c r="C49" s="64" t="n">
+        <v>0.1142</v>
+      </c>
+      <c r="D49" s="64" t="n">
+        <v>0.0592</v>
+      </c>
+      <c r="E49" s="65" t="n">
+        <v>0.0707</v>
+      </c>
+      <c r="F49" s="52"/>
+      <c r="G49" s="26" t="n">
         <f aca="false">($B11-B49)</f>
-        <v>0.0917</v>
-      </c>
-      <c r="H49" s="43" t="n">
+        <v>0.1402</v>
+      </c>
+      <c r="H49" s="45" t="n">
         <f aca="false">($C11-C49)</f>
-        <v>0.0899</v>
-      </c>
-      <c r="I49" s="43" t="n">
+        <v>0.1381</v>
+      </c>
+      <c r="I49" s="45" t="n">
         <f aca="false">($D11-D49)</f>
-        <v>0.0616</v>
-      </c>
-      <c r="J49" s="26" t="n">
+        <v>0.0823</v>
+      </c>
+      <c r="J49" s="28" t="n">
         <f aca="false">($E11-E49)</f>
-        <v>0.068</v>
+        <v>0.0965</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="62"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="62"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="66"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="46" t="s">
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="48" t="s">
+      <c r="C53" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="48" t="s">
+      <c r="D53" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F53" s="50"/>
-      <c r="G53" s="51" t="s">
+      <c r="F53" s="52"/>
+      <c r="G53" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="51" t="s">
+      <c r="H53" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I53" s="51" t="s">
+      <c r="I53" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="J53" s="51" t="s">
+      <c r="J53" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="53" t="n">
-        <v>0.4761</v>
-      </c>
-      <c r="C54" s="53" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="D54" s="53" t="n">
-        <v>0.2693</v>
-      </c>
-      <c r="E54" s="54" t="n">
-        <v>0.3634</v>
-      </c>
-      <c r="F54" s="55"/>
-      <c r="G54" s="32" t="n">
+      <c r="B54" s="68" t="n">
+        <v>0.4892</v>
+      </c>
+      <c r="C54" s="68" t="n">
+        <v>0.5182</v>
+      </c>
+      <c r="D54" s="68" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="E54" s="69" t="n">
+        <v>0.3813</v>
+      </c>
+      <c r="F54" s="57"/>
+      <c r="G54" s="34" t="n">
         <f aca="false">($B3-B54)</f>
-        <v>0.0327</v>
+        <v>0.0196</v>
       </c>
       <c r="H54" s="18" t="n">
         <f aca="false">($C3-C54)</f>
-        <v>0.0463</v>
+        <v>0.027</v>
       </c>
       <c r="I54" s="18" t="n">
         <f aca="false">($D3-D54)</f>
-        <v>0.0178</v>
+        <v>0.0091</v>
       </c>
       <c r="J54" s="19" t="n">
         <f aca="false">($E3-E54)</f>
-        <v>0.0342</v>
+        <v>0.0163</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="57" t="n">
-        <v>0.4697</v>
-      </c>
-      <c r="C55" s="57" t="n">
-        <v>0.4842</v>
-      </c>
-      <c r="D55" s="57" t="n">
-        <v>0.2638</v>
-      </c>
-      <c r="E55" s="58" t="n">
-        <v>0.351</v>
-      </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="32" t="n">
+      <c r="B55" s="61" t="n">
+        <v>0.4717</v>
+      </c>
+      <c r="C55" s="61" t="n">
+        <v>0.4932</v>
+      </c>
+      <c r="D55" s="61" t="n">
+        <v>0.2649</v>
+      </c>
+      <c r="E55" s="62" t="n">
+        <v>0.3616</v>
+      </c>
+      <c r="F55" s="57"/>
+      <c r="G55" s="34" t="n">
         <f aca="false">($B4-B55)</f>
-        <v>0.00459999999999999</v>
+        <v>0.00259999999999999</v>
       </c>
       <c r="H55" s="18" t="n">
         <f aca="false">($C4-C55)</f>
-        <v>0.0177</v>
+        <v>0.00869999999999999</v>
       </c>
       <c r="I55" s="18" t="n">
         <f aca="false">($D4-D55)</f>
-        <v>0.00380000000000003</v>
+        <v>0.00269999999999998</v>
       </c>
       <c r="J55" s="19" t="n">
         <f aca="false">($E4-E55)</f>
-        <v>0.0175</v>
+        <v>0.00690000000000002</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="56" t="s">
+      <c r="A56" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="57" t="n">
-        <v>0.0822</v>
-      </c>
-      <c r="C56" s="57" t="n">
-        <v>0.0935</v>
-      </c>
-      <c r="D56" s="57" t="n">
-        <v>0.0445</v>
-      </c>
-      <c r="E56" s="58" t="n">
-        <v>0.0555</v>
-      </c>
-      <c r="F56" s="55"/>
-      <c r="G56" s="32" t="n">
+      <c r="B56" s="61" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="C56" s="61" t="n">
+        <v>0.0964</v>
+      </c>
+      <c r="D56" s="61" t="n">
+        <v>0.0457</v>
+      </c>
+      <c r="E56" s="62" t="n">
+        <v>0.0568</v>
+      </c>
+      <c r="F56" s="57"/>
+      <c r="G56" s="34" t="n">
         <f aca="false">($B5-B56)</f>
-        <v>0.1088</v>
+        <v>0.105</v>
       </c>
       <c r="H56" s="18" t="n">
         <f aca="false">($C5-C56)</f>
-        <v>0.1028</v>
+        <v>0.0999</v>
       </c>
       <c r="I56" s="18" t="n">
         <f aca="false">($D5-D56)</f>
-        <v>0.0553</v>
+        <v>0.0541</v>
       </c>
       <c r="J56" s="19" t="n">
         <f aca="false">($E5-E56)</f>
-        <v>0.0644</v>
+        <v>0.0631</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="57" t="n">
-        <v>0.4673</v>
-      </c>
-      <c r="C57" s="57" t="n">
-        <v>0.4966</v>
-      </c>
-      <c r="D57" s="57" t="n">
-        <v>0.2642</v>
-      </c>
-      <c r="E57" s="58" t="n">
-        <v>0.3525</v>
-      </c>
-      <c r="F57" s="55"/>
-      <c r="G57" s="32" t="n">
+      <c r="B57" s="61" t="n">
+        <v>0.4951</v>
+      </c>
+      <c r="C57" s="61" t="n">
+        <v>0.5217</v>
+      </c>
+      <c r="D57" s="61" t="n">
+        <v>0.2806</v>
+      </c>
+      <c r="E57" s="62" t="n">
+        <v>0.3741</v>
+      </c>
+      <c r="F57" s="57"/>
+      <c r="G57" s="34" t="n">
         <f aca="false">($B6-B57)</f>
-        <v>0.0865</v>
+        <v>0.0587</v>
       </c>
       <c r="H57" s="18" t="n">
         <f aca="false">($C6-C57)</f>
-        <v>0.0911</v>
+        <v>0.066</v>
       </c>
       <c r="I57" s="18" t="n">
         <f aca="false">($D6-D57)</f>
-        <v>0.0556</v>
+        <v>0.0392</v>
       </c>
       <c r="J57" s="19" t="n">
         <f aca="false">($E6-E57)</f>
-        <v>0.0833</v>
+        <v>0.0617</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="57" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="C58" s="57" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="D58" s="57" t="n">
-        <v>0.2924</v>
-      </c>
-      <c r="E58" s="58" t="n">
-        <v>0.3899</v>
-      </c>
-      <c r="F58" s="55"/>
-      <c r="G58" s="32" t="n">
+      <c r="B58" s="61" t="n">
+        <v>0.5108</v>
+      </c>
+      <c r="C58" s="61" t="n">
+        <v>0.5299</v>
+      </c>
+      <c r="D58" s="61" t="n">
+        <v>0.2914</v>
+      </c>
+      <c r="E58" s="62" t="n">
+        <v>0.3894</v>
+      </c>
+      <c r="F58" s="57"/>
+      <c r="G58" s="34" t="n">
         <f aca="false">($B7-B58)</f>
-        <v>-0.0115000000000001</v>
+        <v>-0.00630000000000008</v>
       </c>
       <c r="H58" s="18" t="n">
         <f aca="false">($C7-C58)</f>
-        <v>-0.00800000000000001</v>
+        <v>-0.00490000000000002</v>
       </c>
       <c r="I58" s="18" t="n">
         <f aca="false">($D7-D58)</f>
-        <v>-0.00650000000000001</v>
+        <v>-0.00550000000000001</v>
       </c>
       <c r="J58" s="19" t="n">
         <f aca="false">($E7-E58)</f>
-        <v>-0.00610000000000005</v>
+        <v>-0.00560000000000005</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="57" t="n">
-        <v>0.1128</v>
-      </c>
-      <c r="C59" s="57" t="n">
-        <v>0.1223</v>
-      </c>
-      <c r="D59" s="57" t="n">
-        <v>0.0666</v>
-      </c>
-      <c r="E59" s="58" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="32" t="n">
+      <c r="B59" s="61" t="n">
+        <v>0.1201</v>
+      </c>
+      <c r="C59" s="61" t="n">
+        <v>0.1289</v>
+      </c>
+      <c r="D59" s="61" t="n">
+        <v>0.0726</v>
+      </c>
+      <c r="E59" s="62" t="n">
+        <v>0.0838</v>
+      </c>
+      <c r="F59" s="57"/>
+      <c r="G59" s="34" t="n">
         <f aca="false">($B8-B59)</f>
-        <v>0.1035</v>
+        <v>0.0962</v>
       </c>
       <c r="H59" s="18" t="n">
         <f aca="false">($C8-C59)</f>
-        <v>0.0973</v>
+        <v>0.0907</v>
       </c>
       <c r="I59" s="18" t="n">
         <f aca="false">($D8-D59)</f>
-        <v>0.0719</v>
+        <v>0.0659</v>
       </c>
       <c r="J59" s="19" t="n">
         <f aca="false">($E8-E59)</f>
-        <v>0.077</v>
+        <v>0.0712</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="56" t="s">
+      <c r="A60" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="57" t="n">
-        <v>0.2173</v>
-      </c>
-      <c r="C60" s="57" t="n">
-        <v>0.2403</v>
-      </c>
-      <c r="D60" s="57" t="n">
-        <v>0.1289</v>
-      </c>
-      <c r="E60" s="58" t="n">
-        <v>0.1571</v>
-      </c>
-      <c r="F60" s="55"/>
-      <c r="G60" s="32" t="n">
+      <c r="B60" s="61" t="n">
+        <v>0.2166</v>
+      </c>
+      <c r="C60" s="61" t="n">
+        <v>0.2364</v>
+      </c>
+      <c r="D60" s="61" t="n">
+        <v>0.1268</v>
+      </c>
+      <c r="E60" s="62" t="n">
+        <v>0.1541</v>
+      </c>
+      <c r="F60" s="57"/>
+      <c r="G60" s="34" t="n">
         <f aca="false">($B9-B60)</f>
-        <v>0.3292</v>
+        <v>0.3299</v>
       </c>
       <c r="H60" s="18" t="n">
         <f aca="false">($C9-C60)</f>
-        <v>0.3402</v>
+        <v>0.3441</v>
       </c>
       <c r="I60" s="18" t="n">
         <f aca="false">($D9-D60)</f>
-        <v>0.1977</v>
+        <v>0.1998</v>
       </c>
       <c r="J60" s="19" t="n">
         <f aca="false">($E9-E60)</f>
-        <v>0.2753</v>
+        <v>0.2783</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="57" t="n">
-        <v>0.4626</v>
-      </c>
-      <c r="C61" s="57" t="n">
-        <v>0.4792</v>
-      </c>
-      <c r="D61" s="57" t="n">
-        <v>0.2733</v>
-      </c>
-      <c r="E61" s="58" t="n">
-        <v>0.3514</v>
-      </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="32" t="n">
+      <c r="B61" s="61" t="n">
+        <v>0.4541</v>
+      </c>
+      <c r="C61" s="61" t="n">
+        <v>0.4712</v>
+      </c>
+      <c r="D61" s="61" t="n">
+        <v>0.2693</v>
+      </c>
+      <c r="E61" s="62" t="n">
+        <v>0.3477</v>
+      </c>
+      <c r="F61" s="57"/>
+      <c r="G61" s="34" t="n">
         <f aca="false">($B10-B61)</f>
-        <v>-0.0263</v>
+        <v>-0.0178</v>
       </c>
       <c r="H61" s="18" t="n">
         <f aca="false">($C10-C61)</f>
-        <v>-0.0219</v>
+        <v>-0.0139</v>
       </c>
       <c r="I61" s="18" t="n">
         <f aca="false">($D10-D61)</f>
-        <v>-0.019</v>
+        <v>-0.015</v>
       </c>
       <c r="J61" s="19" t="n">
         <f aca="false">($E10-E61)</f>
-        <v>-0.0189</v>
+        <v>-0.0152</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="59" t="s">
+      <c r="A62" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="60" t="n">
-        <v>0.0996</v>
-      </c>
-      <c r="C62" s="60" t="n">
-        <v>0.1142</v>
-      </c>
-      <c r="D62" s="60" t="n">
-        <v>0.0592</v>
-      </c>
-      <c r="E62" s="61" t="n">
-        <v>0.0707</v>
-      </c>
-      <c r="F62" s="50"/>
-      <c r="G62" s="24" t="n">
+      <c r="B62" s="70" t="n">
+        <v>0.1052</v>
+      </c>
+      <c r="C62" s="70" t="n">
+        <v>0.1167</v>
+      </c>
+      <c r="D62" s="70" t="n">
+        <v>0.0642</v>
+      </c>
+      <c r="E62" s="71" t="n">
+        <v>0.0746</v>
+      </c>
+      <c r="F62" s="52"/>
+      <c r="G62" s="26" t="n">
         <f aca="false">($B11-B62)</f>
-        <v>0.1402</v>
-      </c>
-      <c r="H62" s="43" t="n">
+        <v>0.1346</v>
+      </c>
+      <c r="H62" s="45" t="n">
         <f aca="false">($C11-C62)</f>
-        <v>0.1381</v>
-      </c>
-      <c r="I62" s="43" t="n">
+        <v>0.1356</v>
+      </c>
+      <c r="I62" s="45" t="n">
         <f aca="false">($D11-D62)</f>
-        <v>0.0823</v>
-      </c>
-      <c r="J62" s="26" t="n">
+        <v>0.0773</v>
+      </c>
+      <c r="J62" s="28" t="n">
         <f aca="false">($E11-E62)</f>
-        <v>0.0965</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="62"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
+      <c r="A63" s="66"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="46" t="s">
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="48" t="s">
+      <c r="C65" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="48" t="s">
+      <c r="D65" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="49" t="s">
+      <c r="E65" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="50"/>
-      <c r="G65" s="51" t="s">
+      <c r="F65" s="52"/>
+      <c r="G65" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="51" t="s">
+      <c r="H65" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="51" t="s">
+      <c r="I65" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="J65" s="51" t="s">
+      <c r="J65" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="52" t="s">
+      <c r="A66" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="53" t="n">
+      <c r="B66" s="68" t="n">
         <v>0.4925</v>
       </c>
-      <c r="C66" s="53" t="n">
+      <c r="C66" s="68" t="n">
         <v>0.519</v>
       </c>
-      <c r="D66" s="53" t="n">
+      <c r="D66" s="68" t="n">
         <v>0.2806</v>
       </c>
-      <c r="E66" s="54" t="n">
+      <c r="E66" s="69" t="n">
         <v>0.3803</v>
       </c>
-      <c r="F66" s="55"/>
-      <c r="G66" s="32" t="n">
+      <c r="F66" s="57"/>
+      <c r="G66" s="34" t="n">
         <f aca="false">($B3-B66)</f>
         <v>0.0163</v>
       </c>
@@ -2407,57 +2439,57 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="56" t="s">
+      <c r="A67" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="57" t="n">
-        <v>0.4819</v>
-      </c>
-      <c r="C67" s="57" t="n">
-        <v>0.5058</v>
-      </c>
-      <c r="D67" s="57" t="n">
-        <v>0.2708</v>
-      </c>
-      <c r="E67" s="58" t="n">
-        <v>0.3684</v>
-      </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="32" t="n">
+      <c r="B67" s="61" t="n">
+        <v>0.4721</v>
+      </c>
+      <c r="C67" s="61" t="n">
+        <v>0.4956</v>
+      </c>
+      <c r="D67" s="61" t="n">
+        <v>0.2653</v>
+      </c>
+      <c r="E67" s="62" t="n">
+        <v>0.3609</v>
+      </c>
+      <c r="F67" s="57"/>
+      <c r="G67" s="34" t="n">
         <f aca="false">($B4-B67)</f>
-        <v>-0.0076</v>
+        <v>0.00219999999999998</v>
       </c>
       <c r="H67" s="18" t="n">
         <f aca="false">($C4-C67)</f>
-        <v>-0.00390000000000001</v>
+        <v>0.00630000000000003</v>
       </c>
       <c r="I67" s="18" t="n">
         <f aca="false">($D4-D67)</f>
-        <v>-0.00319999999999998</v>
+        <v>0.00230000000000002</v>
       </c>
       <c r="J67" s="19" t="n">
         <f aca="false">($E4-E67)</f>
-        <v>9.9999999999989E-005</v>
+        <v>0.0076</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="57" t="n">
+      <c r="B68" s="61" t="n">
         <v>0.0866</v>
       </c>
-      <c r="C68" s="57" t="n">
+      <c r="C68" s="61" t="n">
         <v>0.0956</v>
       </c>
-      <c r="D68" s="57" t="n">
+      <c r="D68" s="61" t="n">
         <v>0.0469</v>
       </c>
-      <c r="E68" s="58" t="n">
+      <c r="E68" s="62" t="n">
         <v>0.0573</v>
       </c>
-      <c r="F68" s="55"/>
-      <c r="G68" s="32" t="n">
+      <c r="F68" s="57"/>
+      <c r="G68" s="34" t="n">
         <f aca="false">($B5-B68)</f>
         <v>0.1044</v>
       </c>
@@ -2475,23 +2507,23 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="56" t="s">
+      <c r="A69" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="57" t="n">
+      <c r="B69" s="61" t="n">
         <v>0.4936</v>
       </c>
-      <c r="C69" s="57" t="n">
+      <c r="C69" s="61" t="n">
         <v>0.5198</v>
       </c>
-      <c r="D69" s="57" t="n">
+      <c r="D69" s="61" t="n">
         <v>0.2806</v>
       </c>
-      <c r="E69" s="58" t="n">
+      <c r="E69" s="62" t="n">
         <v>0.3731</v>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="32" t="n">
+      <c r="F69" s="57"/>
+      <c r="G69" s="34" t="n">
         <f aca="false">($B6-B69)</f>
         <v>0.0602</v>
       </c>
@@ -2509,57 +2541,57 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="56" t="s">
+      <c r="A70" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="57" t="n">
-        <v>0.5184</v>
-      </c>
-      <c r="C70" s="57" t="n">
-        <v>0.5359</v>
-      </c>
-      <c r="D70" s="57" t="n">
-        <v>0.2935</v>
-      </c>
-      <c r="E70" s="58" t="n">
-        <v>0.3923</v>
-      </c>
-      <c r="F70" s="55"/>
-      <c r="G70" s="32" t="n">
+      <c r="B70" s="61" t="n">
+        <v>0.5079</v>
+      </c>
+      <c r="C70" s="61" t="n">
+        <v>0.5251</v>
+      </c>
+      <c r="D70" s="61" t="n">
+        <v>0.2875</v>
+      </c>
+      <c r="E70" s="62" t="n">
+        <v>0.3844</v>
+      </c>
+      <c r="F70" s="57"/>
+      <c r="G70" s="34" t="n">
         <f aca="false">($B7-B70)</f>
-        <v>-0.0139</v>
+        <v>-0.00340000000000007</v>
       </c>
       <c r="H70" s="18" t="n">
         <f aca="false">($C7-C70)</f>
-        <v>-0.0109</v>
+        <v>-9.9999999999989E-005</v>
       </c>
       <c r="I70" s="18" t="n">
         <f aca="false">($D7-D70)</f>
-        <v>-0.0076</v>
+        <v>-0.00159999999999999</v>
       </c>
       <c r="J70" s="19" t="n">
         <f aca="false">($E7-E70)</f>
-        <v>-0.00850000000000001</v>
+        <v>-0.000600000000000045</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="56" t="s">
+      <c r="A71" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="57" t="n">
+      <c r="B71" s="61" t="n">
         <v>0.1202</v>
       </c>
-      <c r="C71" s="57" t="n">
+      <c r="C71" s="61" t="n">
         <v>0.1297</v>
       </c>
-      <c r="D71" s="57" t="n">
+      <c r="D71" s="61" t="n">
         <v>0.073</v>
       </c>
-      <c r="E71" s="58" t="n">
+      <c r="E71" s="62" t="n">
         <v>0.0842</v>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="32" t="n">
+      <c r="F71" s="57"/>
+      <c r="G71" s="34" t="n">
         <f aca="false">($B8-B71)</f>
         <v>0.0961</v>
       </c>
@@ -2577,23 +2609,23 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="56" t="s">
+      <c r="A72" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="57" t="n">
+      <c r="B72" s="61" t="n">
         <v>0.2153</v>
       </c>
-      <c r="C72" s="57" t="n">
+      <c r="C72" s="61" t="n">
         <v>0.235</v>
       </c>
-      <c r="D72" s="57" t="n">
+      <c r="D72" s="61" t="n">
         <v>0.1261</v>
       </c>
-      <c r="E72" s="58" t="n">
+      <c r="E72" s="62" t="n">
         <v>0.1526</v>
       </c>
-      <c r="F72" s="55"/>
-      <c r="G72" s="32" t="n">
+      <c r="F72" s="57"/>
+      <c r="G72" s="34" t="n">
         <f aca="false">($B9-B72)</f>
         <v>0.3312</v>
       </c>
@@ -2611,84 +2643,84 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="56" t="s">
+      <c r="A73" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="57" t="n">
-        <v>0.4634</v>
-      </c>
-      <c r="C73" s="57" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D73" s="57" t="n">
-        <v>0.2743</v>
-      </c>
-      <c r="E73" s="58" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="32" t="n">
+      <c r="B73" s="61" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="C73" s="61" t="n">
+        <v>0.4702</v>
+      </c>
+      <c r="D73" s="61" t="n">
+        <v>0.2687</v>
+      </c>
+      <c r="E73" s="62" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="F73" s="57"/>
+      <c r="G73" s="34" t="n">
         <f aca="false">($B10-B73)</f>
-        <v>-0.0271</v>
+        <v>-0.0177</v>
       </c>
       <c r="H73" s="18" t="n">
         <f aca="false">($C10-C73)</f>
-        <v>-0.0227</v>
+        <v>-0.0129</v>
       </c>
       <c r="I73" s="18" t="n">
         <f aca="false">($D10-D73)</f>
-        <v>-0.02</v>
+        <v>-0.0144</v>
       </c>
       <c r="J73" s="19" t="n">
         <f aca="false">($E10-E73)</f>
-        <v>-0.0215</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="59" t="s">
+      <c r="A74" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="60" t="n">
+      <c r="B74" s="70" t="n">
         <v>0.1055</v>
       </c>
-      <c r="C74" s="60" t="n">
+      <c r="C74" s="70" t="n">
         <v>0.1178</v>
       </c>
-      <c r="D74" s="60" t="n">
+      <c r="D74" s="70" t="n">
         <v>0.0645</v>
       </c>
-      <c r="E74" s="61" t="n">
+      <c r="E74" s="71" t="n">
         <v>0.0755</v>
       </c>
-      <c r="F74" s="50"/>
-      <c r="G74" s="24" t="n">
+      <c r="F74" s="52"/>
+      <c r="G74" s="26" t="n">
         <f aca="false">($B11-B74)</f>
         <v>0.1343</v>
       </c>
-      <c r="H74" s="43" t="n">
+      <c r="H74" s="45" t="n">
         <f aca="false">($C11-C74)</f>
         <v>0.1345</v>
       </c>
-      <c r="I74" s="43" t="n">
+      <c r="I74" s="45" t="n">
         <f aca="false">($D11-D74)</f>
         <v>0.077</v>
       </c>
-      <c r="J74" s="26" t="n">
+      <c r="J74" s="28" t="n">
         <f aca="false">($E11-E74)</f>
         <v>0.0917</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="62"/>
-      <c r="B75" s="62"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
+      <c r="A75" s="66"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="11">
